--- a/results/I3_N5_M2_T15_C150_DepCentral_s2_mean_res.xlsx
+++ b/results/I3_N5_M2_T15_C150_DepCentral_s2_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>617.5555805790974</v>
+        <v>500.714365082849</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06999993324279785</v>
+        <v>0.0429999828338623</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.604542989721538e-12</v>
+        <v>1.503951747538962e-11</v>
       </c>
     </row>
     <row r="6">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.810485664048498</v>
+        <v>5.134510687494964</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.791701159296143</v>
+        <v>5.134510687494964</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>501.5800000010006</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.28</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -758,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -863,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.134510687494963</v>
+        <v>6.958585032589895</v>
       </c>
     </row>
     <row r="4">
@@ -871,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>6.293754227046177</v>
       </c>
     </row>
     <row r="5">
@@ -879,7 +879,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -887,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -895,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.29375422704618</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -957,29 +957,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1038,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>37.34700000001585</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4">
@@ -1049,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>152.6190000000464</v>
+        <v>117.6</v>
       </c>
     </row>
     <row r="5">
@@ -1060,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>38.14099999999875</v>
+        <v>128.8</v>
       </c>
     </row>
     <row r="6">
@@ -1071,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>145.9320000000124</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="7">
@@ -1082,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>200.158000000073</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="8">
@@ -1093,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>145.9320000000166</v>
+        <v>128.8</v>
       </c>
     </row>
     <row r="9">
@@ -1104,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>200.1580000001003</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1162,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>50.15800000010006</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1209,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3.726</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="3">
@@ -1220,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="4">
@@ -1231,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>5.601999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1242,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="6">
@@ -1253,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1267,7 +1253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1294,23 +1280,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
         <v>1</v>
       </c>
     </row>
